--- a/2022/Price List/Symphony Price List  27.07.2022.xlsx
+++ b/2022/Price List/Symphony Price List  27.07.2022.xlsx
@@ -859,6 +859,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,9 +902,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3245,8 +3245,8 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3261,26 +3261,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -4474,7 +4474,7 @@
       <c r="F54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="G54" s="37" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4548,16 +4548,16 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="42" t="s">
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="36" t="s">
         <v>106</v>
       </c>
@@ -4600,20 +4600,20 @@
       <c r="E1" s="23"/>
     </row>
     <row r="2" spans="5:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="5:6" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E5" s="24" t="s">
@@ -4644,10 +4644,10 @@
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E10" s="24" t="s">

--- a/2022/Price List/Symphony Price List  27.07.2022.xlsx
+++ b/2022/Price List/Symphony Price List  27.07.2022.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="135">
   <si>
     <t>Model Name</t>
   </si>
@@ -191,9 +191,6 @@
     <t>2/32 GB</t>
   </si>
   <si>
-    <t>1/8 GB</t>
-  </si>
-  <si>
     <t>1/16 GB</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
     <t>i71</t>
   </si>
   <si>
-    <t>V99Plus</t>
-  </si>
-  <si>
     <t>Mugdho Corporation</t>
   </si>
   <si>
@@ -425,7 +419,10 @@
     <t>CP= 10,990</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (27.07.2022)</t>
+    <t>Z55 (4GB+128GB)</t>
+  </si>
+  <si>
+    <t>Symphony Mobile Price List (01.08.2022)</t>
   </si>
 </sst>
 </file>
@@ -765,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,6 +857,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3245,8 +3254,8 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3261,26 +3270,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="A1" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -3329,25 +3338,25 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1010</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1070</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1090</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1160</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="16">
         <v>0</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3375,94 +3384,94 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="38">
+        <v>1080</v>
+      </c>
+      <c r="C7" s="38">
+        <v>1150</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1270</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1350</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1160</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1230</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1070</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B10" s="14">
+        <v>1190</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1260</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1180</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1250</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1100</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1170</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1130</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1200</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3514,7 +3523,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="10">
         <v>1270</v>
@@ -3537,7 +3546,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="10">
         <v>1500</v>
@@ -3560,7 +3569,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="10">
         <v>1190</v>
@@ -3583,7 +3592,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="10">
         <v>1190</v>
@@ -3629,7 +3638,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="18">
         <v>1310</v>
@@ -3675,7 +3684,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="10">
         <v>1290</v>
@@ -3698,7 +3707,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="10">
         <v>1240</v>
@@ -3721,7 +3730,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="10">
         <v>1290</v>
@@ -3767,7 +3776,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="10">
         <v>1320</v>
@@ -3790,7 +3799,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B25" s="10">
         <v>1320</v>
@@ -3836,7 +3845,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" s="10">
         <v>1460</v>
@@ -3848,7 +3857,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F27" s="8">
         <v>0</v>
@@ -3859,7 +3868,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="10">
         <v>1460</v>
@@ -3882,7 +3891,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="10">
         <v>1490</v>
@@ -3905,7 +3914,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="10">
         <v>1470</v>
@@ -3951,7 +3960,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="18">
         <v>7430</v>
@@ -3974,7 +3983,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="18">
         <v>7530</v>
@@ -3996,31 +4005,31 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="14">
+      <c r="A34" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="10">
         <v>5370</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="10">
         <v>5700</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="10">
         <v>5650</v>
@@ -4035,7 +4044,7 @@
         <v>26</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>39</v>
@@ -4043,7 +4052,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="10">
         <v>5600</v>
@@ -4058,7 +4067,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>52</v>
@@ -4066,7 +4075,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="10">
         <v>6500</v>
@@ -4089,7 +4098,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="10">
         <v>6580</v>
@@ -4112,7 +4121,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="10">
         <v>7070</v>
@@ -4121,21 +4130,21 @@
         <v>7499</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="10">
         <v>6570</v>
@@ -4150,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>38</v>
@@ -4158,94 +4167,94 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B41" s="10">
-        <v>3640</v>
+        <v>6100</v>
       </c>
       <c r="C41" s="10">
-        <v>3890</v>
+        <v>6490</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B42" s="10">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="C42" s="10">
-        <v>6490</v>
+        <v>6590</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B43" s="10">
-        <v>6200</v>
+        <v>7430</v>
       </c>
       <c r="C43" s="10">
-        <v>6590</v>
+        <v>7990</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="10">
-        <v>7430</v>
-      </c>
-      <c r="C44" s="10">
-        <v>7990</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="B44" s="9">
+        <v>9300</v>
+      </c>
+      <c r="C44" s="9">
+        <v>9790</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>40</v>
+      <c r="F44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -4253,10 +4262,10 @@
         <v>97</v>
       </c>
       <c r="B45" s="9">
-        <v>9300</v>
+        <v>10130</v>
       </c>
       <c r="C45" s="9">
-        <v>9790</v>
+        <v>10890</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>34</v>
@@ -4272,112 +4281,112 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="9">
-        <v>10130</v>
-      </c>
-      <c r="C46" s="9">
-        <v>10890</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="B46" s="10">
+        <v>7900</v>
+      </c>
+      <c r="C46" s="10">
+        <v>8390</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="10">
-        <v>7900</v>
-      </c>
-      <c r="C47" s="10">
-        <v>8390</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="B47" s="9">
+        <v>7980</v>
+      </c>
+      <c r="C47" s="9">
+        <v>8590</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>62</v>
+      <c r="F47" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="9">
-        <v>7980</v>
-      </c>
-      <c r="C48" s="9">
-        <v>8590</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="B48" s="10">
+        <v>8850</v>
+      </c>
+      <c r="C48" s="10">
+        <v>9390</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>46</v>
+      <c r="F48" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="10">
-        <v>8850</v>
-      </c>
-      <c r="C49" s="10">
-        <v>9390</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>53</v>
+      <c r="A49" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="9">
+        <v>9290</v>
+      </c>
+      <c r="C49" s="9">
+        <v>9990</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B50" s="9">
-        <v>9290</v>
+        <v>10230</v>
       </c>
       <c r="C50" s="9">
-        <v>9990</v>
+        <v>10990</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>60</v>
@@ -4388,105 +4397,105 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="9">
-        <v>10230</v>
-      </c>
-      <c r="C51" s="9">
-        <v>10990</v>
+        <v>115</v>
+      </c>
+      <c r="B51" s="5">
+        <v>9290</v>
+      </c>
+      <c r="C51" s="5">
+        <v>9990</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="5">
-        <v>9290</v>
-      </c>
-      <c r="C52" s="5">
-        <v>9990</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="A52" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="10">
+        <v>10460</v>
+      </c>
+      <c r="C52" s="10">
+        <v>11100</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="10">
+        <v>11770</v>
+      </c>
+      <c r="C53" s="10">
+        <v>12490</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="14">
-        <v>10460</v>
-      </c>
-      <c r="C53" s="14">
-        <v>11100</v>
-      </c>
-      <c r="D53" s="15" t="s">
+      <c r="G53" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="10">
+        <v>9880</v>
+      </c>
+      <c r="C54" s="10">
+        <v>10490</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E54" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F54" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="14">
-        <v>11770</v>
-      </c>
-      <c r="C54" s="14">
-        <v>12490</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="37" t="s">
-        <v>115</v>
+      <c r="G54" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="B55" s="10">
-        <v>9880</v>
+        <v>11770</v>
       </c>
       <c r="C55" s="10">
-        <v>10490</v>
+        <v>12490</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>34</v>
@@ -4495,38 +4504,38 @@
         <v>35</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="14">
-        <v>11770</v>
-      </c>
-      <c r="C56" s="14">
-        <v>12490</v>
-      </c>
-      <c r="D56" s="15" t="s">
+      <c r="A56" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="40">
+        <v>12520</v>
+      </c>
+      <c r="C56" s="40">
+        <v>13290</v>
+      </c>
+      <c r="D56" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>115</v>
+      <c r="F56" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="37" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="33">
         <v>14170</v>
@@ -4541,25 +4550,25 @@
         <v>35</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E58" s="44"/>
-      <c r="F58" s="45"/>
+      <c r="A58" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49"/>
       <c r="G58" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H58" s="17"/>
     </row>
@@ -4600,43 +4609,43 @@
       <c r="E1" s="23"/>
     </row>
     <row r="2" spans="5:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="49"/>
+      <c r="E2" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="5:6" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E4" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="47"/>
+      <c r="E4" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E5" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E6" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E7" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -4644,33 +4653,33 @@
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E9" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="47"/>
+      <c r="E9" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E10" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E11" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="5:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E12" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/2022/Price List/Symphony Price List  27.07.2022.xlsx
+++ b/2022/Price List/Symphony Price List  27.07.2022.xlsx
@@ -422,7 +422,7 @@
     <t>Z55 (4GB+128GB)</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (01.08.2022)</t>
+    <t>Symphony Mobile Price List (03.08.2022)</t>
   </si>
 </sst>
 </file>
@@ -816,18 +816,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -869,6 +857,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3254,8 +3254,8 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3387,10 +3387,10 @@
       <c r="A7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="34">
         <v>1080</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="34">
         <v>1150</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -3476,48 +3476,48 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10">
-        <v>1240</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1320</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="14">
+        <v>1330</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1410</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="16">
         <v>0</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10">
-        <v>1270</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1350</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="14">
+        <v>1370</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1450</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="16">
         <v>0</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3614,48 +3614,48 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="20">
-        <v>1200</v>
-      </c>
-      <c r="C17" s="20">
-        <v>1270</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="B17" s="39">
+        <v>1290</v>
+      </c>
+      <c r="C17" s="39">
+        <v>1370</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="16">
         <v>0</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="18">
-        <v>1310</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1390</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="34">
+        <v>1400</v>
+      </c>
+      <c r="C18" s="34">
+        <v>1490</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="16">
         <v>0</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3729,25 +3729,25 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="10">
-        <v>1290</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1370</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="14">
+        <v>1380</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1470</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="16">
         <v>0</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4511,48 +4511,48 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="40">
+      <c r="B56" s="36">
         <v>12520</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="36">
         <v>13290</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="E56" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="41" t="s">
+      <c r="F56" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="29">
         <v>14170</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="29">
         <v>14990</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F57" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="30" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E58" s="48"/>
       <c r="F58" s="49"/>
-      <c r="G58" s="36" t="s">
+      <c r="G58" s="32" t="s">
         <v>104</v>
       </c>
       <c r="H58" s="17"/>
@@ -4606,7 +4606,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E1" s="23"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="5:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="52" t="s">
@@ -4625,32 +4625,32 @@
       <c r="F4" s="51"/>
     </row>
     <row r="5" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E9" s="50" t="s">
@@ -4659,26 +4659,26 @@
       <c r="F9" s="51"/>
     </row>
     <row r="10" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="5:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="27" t="s">
         <v>129</v>
       </c>
     </row>

--- a/2022/Price List/Symphony Price List  27.07.2022.xlsx
+++ b/2022/Price List/Symphony Price List  27.07.2022.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="136">
   <si>
     <t>Model Name</t>
   </si>
@@ -422,7 +422,10 @@
     <t>Z55 (4GB+128GB)</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (03.08.2022)</t>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>Symphony Mobile Price List (04.08.2022)</t>
   </si>
 </sst>
 </file>
@@ -937,13 +940,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>230150</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>250527</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -961,7 +964,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="371476" y="12592050"/>
+          <a:off x="371476" y="12811125"/>
           <a:ext cx="5373649" cy="231477"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="230" cy="258"/>
@@ -3251,11 +3254,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3282,7 +3285,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -3798,25 +3801,25 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="10">
-        <v>1320</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1400</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="14">
+        <v>1420</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1510</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="16">
         <v>0</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3913,86 +3916,84 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="36">
+        <v>1400</v>
+      </c>
+      <c r="C30" s="36">
+        <v>1490</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="37"/>
+      <c r="G30" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="10">
-        <v>1470</v>
-      </c>
-      <c r="C30" s="10">
-        <v>1570</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B31" s="14">
+        <v>1510</v>
+      </c>
+      <c r="C31" s="14">
+        <v>1600</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E31" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="16">
         <v>0</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="10">
-        <v>1340</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1420</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="18">
-        <v>7430</v>
-      </c>
-      <c r="C32" s="18">
-        <v>7990</v>
+        <v>12</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1340</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1420</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>56</v>
+        <v>24</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="18">
-        <v>7530</v>
+        <v>7430</v>
       </c>
       <c r="C33" s="18">
         <v>7990</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>31</v>
@@ -4001,107 +4002,107 @@
         <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="10">
-        <v>5370</v>
-      </c>
-      <c r="C34" s="10">
-        <v>5700</v>
+        <v>76</v>
+      </c>
+      <c r="B34" s="18">
+        <v>7530</v>
+      </c>
+      <c r="C34" s="18">
+        <v>7990</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B35" s="10">
-        <v>5650</v>
+        <v>5370</v>
       </c>
       <c r="C35" s="10">
-        <v>5990</v>
+        <v>5700</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B36" s="10">
-        <v>5600</v>
+        <v>5650</v>
       </c>
       <c r="C36" s="10">
         <v>5990</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="10">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="C37" s="10">
-        <v>6990</v>
+        <v>5990</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B38" s="10">
-        <v>6580</v>
+        <v>6500</v>
       </c>
       <c r="C38" s="10">
         <v>6990</v>
@@ -4116,93 +4117,93 @@
         <v>56</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B39" s="10">
-        <v>7070</v>
+        <v>6580</v>
       </c>
       <c r="C39" s="10">
-        <v>7499</v>
+        <v>6990</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B40" s="10">
-        <v>6570</v>
+        <v>7070</v>
       </c>
       <c r="C40" s="10">
-        <v>6990</v>
+        <v>7499</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B41" s="10">
-        <v>6100</v>
+        <v>6570</v>
       </c>
       <c r="C41" s="10">
-        <v>6490</v>
+        <v>6990</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B42" s="10">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="C42" s="10">
-        <v>6590</v>
+        <v>6490</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>56</v>
@@ -4213,59 +4214,59 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B43" s="10">
-        <v>7430</v>
+        <v>6200</v>
       </c>
       <c r="C43" s="10">
-        <v>7990</v>
+        <v>6590</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="10">
+        <v>7430</v>
+      </c>
+      <c r="C44" s="10">
+        <v>7990</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="9">
-        <v>9300</v>
-      </c>
-      <c r="C44" s="9">
-        <v>9790</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" s="9">
-        <v>10130</v>
+        <v>9300</v>
       </c>
       <c r="C45" s="9">
-        <v>10890</v>
+        <v>9790</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>34</v>
@@ -4274,102 +4275,102 @@
         <v>35</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="9">
+        <v>10130</v>
+      </c>
+      <c r="C46" s="9">
+        <v>10890</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B47" s="10">
         <v>7900</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C47" s="10">
         <v>8390</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B48" s="9">
         <v>7980</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C48" s="9">
         <v>8590</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B49" s="10">
         <v>8850</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C49" s="10">
         <v>9390</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="9">
-        <v>9290</v>
-      </c>
-      <c r="C49" s="9">
-        <v>9990</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -4377,10 +4378,10 @@
         <v>116</v>
       </c>
       <c r="B50" s="9">
-        <v>10230</v>
+        <v>9290</v>
       </c>
       <c r="C50" s="9">
-        <v>10990</v>
+        <v>9990</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>49</v>
@@ -4389,7 +4390,7 @@
         <v>105</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>50</v>
@@ -4397,59 +4398,59 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="9">
+        <v>10230</v>
+      </c>
+      <c r="C51" s="9">
+        <v>10990</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B52" s="5">
         <v>9290</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C52" s="5">
         <v>9990</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="10">
-        <v>10460</v>
-      </c>
-      <c r="C52" s="10">
-        <v>11100</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B53" s="10">
-        <v>11770</v>
+        <v>10460</v>
       </c>
       <c r="C53" s="10">
-        <v>12490</v>
+        <v>11100</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>34</v>
@@ -4458,21 +4459,21 @@
         <v>35</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="B54" s="10">
-        <v>9880</v>
+        <v>11770</v>
       </c>
       <c r="C54" s="10">
-        <v>10490</v>
+        <v>12490</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>34</v>
@@ -4484,18 +4485,18 @@
         <v>60</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="B55" s="10">
-        <v>11770</v>
+        <v>9880</v>
       </c>
       <c r="C55" s="10">
-        <v>12490</v>
+        <v>10490</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>34</v>
@@ -4507,83 +4508,106 @@
         <v>60</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="10">
+        <v>11770</v>
+      </c>
+      <c r="C56" s="10">
+        <v>12490</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="35" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B57" s="36">
         <v>12520</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C57" s="36">
         <v>13290</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D57" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E57" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="37" t="s">
+      <c r="F57" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="33" t="s">
+      <c r="G57" s="33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="28" t="s">
+    <row r="58" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="29">
+      <c r="B58" s="29">
         <v>14170</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C58" s="29">
         <v>14990</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D58" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E58" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F58" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="G58" s="30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="44" t="s">
+    <row r="59" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="47" t="s">
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="32" t="s">
+      <c r="E59" s="48"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H58" s="17"/>
+      <c r="H59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A58" numberStoredAsText="1"/>
+    <ignoredError sqref="A59" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/2022/Price List/Symphony Price List  27.07.2022.xlsx
+++ b/2022/Price List/Symphony Price List  27.07.2022.xlsx
@@ -425,7 +425,7 @@
     <t>S30</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (04.08.2022)</t>
+    <t>Symphony Mobile Price List (07.08.2022)</t>
   </si>
 </sst>
 </file>
@@ -3258,7 +3258,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4562,7 +4562,7 @@
         <v>111</v>
       </c>
       <c r="B58" s="29">
-        <v>14170</v>
+        <v>14100</v>
       </c>
       <c r="C58" s="29">
         <v>14990</v>
